--- a/Uploads/bitcoin_halving_progress.xlsx
+++ b/Uploads/bitcoin_halving_progress.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>895515</v>
+        <v>895522</v>
       </c>
       <c r="C2" t="n">
-        <v>154485</v>
+        <v>154478</v>
       </c>
       <c r="D2" t="n">
         <v>1072.8</v>
